--- a/Stocks/OFSS.xlsx
+++ b/Stocks/OFSS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>3607.15</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>3622.8234815494302</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>3597.3444074074337</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>45.685666440991731</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>22.150000000000091</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>52.150000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.42473633748801637</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>3640.5829716722492</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-5.834821508342884</v>
       </c>
       <c r="Y67">
         <v>-2.5522891380746415</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>3436.2</v>
+      </c>
+      <c r="D83">
+        <v>3483.9</v>
+      </c>
+      <c r="E83">
+        <v>3426.3</v>
+      </c>
+      <c r="F83">
+        <v>3482</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>3464.0666666666671</v>
+      </c>
+      <c r="H83">
+        <v>3450.8426540143064</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>3497.1742382788625</v>
+      </c>
+      <c r="K83">
+        <v>3431.5048317415099</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>53.151582067971283</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>55.699999999999818</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>57.599999999999909</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.96701388888888729</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>3486.1039587666146</v>
+      </c>
+      <c r="W83">
+        <v>3534.7342958404929</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-48.630337073878309</v>
+      </c>
+      <c r="Y83">
+        <v>-42.35767022959174</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>3460.15</v>
+      </c>
+      <c r="D84">
+        <v>3466.8</v>
+      </c>
+      <c r="E84">
+        <v>3410</v>
+      </c>
+      <c r="F84">
+        <v>3438.25</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>3438.35</v>
+      </c>
+      <c r="H84">
+        <v>3444.5963270071534</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>3490.4244075502265</v>
+      </c>
+      <c r="K84">
+        <v>3426.7259802433964</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>40.866297398256094</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>28.25</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>56.800000000000182</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.49735915492957589</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>3478.7418112640585</v>
+      </c>
+      <c r="W84">
+        <v>3527.5873109634194</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-48.845499699360971</v>
+      </c>
+      <c r="Y84">
+        <v>-43.655236123545585</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>3456</v>
+      </c>
+      <c r="D85">
+        <v>3476.1</v>
+      </c>
+      <c r="E85">
+        <v>3412.65</v>
+      </c>
+      <c r="F85">
+        <v>3412.7</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>3433.8166666666671</v>
+      </c>
+      <c r="H85">
+        <v>3439.2064968369104</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>3487.2412058723985</v>
+      </c>
+      <c r="K85">
+        <v>3423.5979846337527</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>34.966419171124301</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4.9999999999727152E-2</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>63.449999999999818</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>7.8802206461351136E-4</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V85">
+        <v>3468.5815326080497</v>
+      </c>
+      <c r="W85">
+        <v>3519.077139780944</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-50.495607172894324</v>
+      </c>
+      <c r="Y85">
+        <v>-45.023310333415331</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>3425</v>
+      </c>
+      <c r="D86">
+        <v>3439</v>
+      </c>
+      <c r="E86">
+        <v>3387.2</v>
+      </c>
+      <c r="F86">
+        <v>3430</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>3418.7333333333336</v>
+      </c>
+      <c r="H86">
+        <v>3428.969915085122</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>3476.5209379007542</v>
+      </c>
+      <c r="K86">
+        <v>3415.5095436040297</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>42.047726550597091</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>42.800000000000182</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>51.800000000000182</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.82625482625482682</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>3462.6459122068113</v>
+      </c>
+      <c r="W86">
+        <v>3512.4788331305035</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-49.8329209236922</v>
+      </c>
+      <c r="Y86">
+        <v>-45.985232451470708</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>3424.7</v>
+      </c>
+      <c r="D87">
+        <v>3494</v>
+      </c>
+      <c r="E87">
+        <v>3414.2</v>
+      </c>
+      <c r="F87">
+        <v>3494</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>3467.4</v>
+      </c>
+      <c r="H87">
+        <v>3448.1849575425613</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>3480.4051739228089</v>
+      </c>
+      <c r="K87">
+        <v>3415.2185339142452</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>61.455689186669069</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>79.800000000000182</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>79.800000000000182</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>3467.4696180211481</v>
+      </c>
+      <c r="W87">
+        <v>3511.1100306763919</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-43.640412655243836</v>
+      </c>
+      <c r="Y87">
+        <v>-45.516268492225336</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>3477</v>
+      </c>
+      <c r="D88">
+        <v>3605.1</v>
+      </c>
+      <c r="E88">
+        <v>3448.35</v>
+      </c>
+      <c r="F88">
+        <v>3595</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>3549.4833333333336</v>
+      </c>
+      <c r="H88">
+        <v>3498.8341454379474</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>3508.1151352732959</v>
+      </c>
+      <c r="K88">
+        <v>3422.5810819333019</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>76.789399599942655</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>146.65000000000009</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>156.75</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.93556618819776771</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>3487.0896767871254</v>
+      </c>
+      <c r="W88">
+        <v>3517.3241024781405</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-30.234425691015076</v>
+      </c>
+      <c r="Y88">
+        <v>-42.459899931983287</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>3599</v>
+      </c>
+      <c r="D89">
+        <v>3630</v>
+      </c>
+      <c r="E89">
+        <v>3491</v>
+      </c>
+      <c r="F89">
+        <v>3499.35</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>3540.1166666666668</v>
+      </c>
+      <c r="H89">
+        <v>3519.4754060523073</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>3535.2006607681192</v>
+      </c>
+      <c r="K89">
+        <v>3437.7852859481236</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>52.204496634553657</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>8.3499999999999091</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>139</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>6.0071942446042512E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>3488.9758803583368</v>
+      </c>
+      <c r="W89">
+        <v>3515.9926874797598</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-27.016807121422971</v>
+      </c>
+      <c r="Y89">
+        <v>-39.371281369871227</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>3499.35</v>
+      </c>
+      <c r="D90">
+        <v>3573.9</v>
+      </c>
+      <c r="E90">
+        <v>3480</v>
+      </c>
+      <c r="F90">
+        <v>3540</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>3531.2999999999997</v>
+      </c>
+      <c r="H90">
+        <v>3525.3877030261538</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>3543.8005139307593</v>
+      </c>
+      <c r="K90">
+        <v>3447.166333515207</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>59.15192954592451</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>93.900000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.63897763578274702</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>3496.8257449185926</v>
+      </c>
+      <c r="W90">
+        <v>3517.7710069257037</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-20.945262007111069</v>
+      </c>
+      <c r="Y90">
+        <v>-35.686077497319197</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>3565</v>
+      </c>
+      <c r="D91">
+        <v>3578.65</v>
+      </c>
+      <c r="E91">
+        <v>3515</v>
+      </c>
+      <c r="F91">
+        <v>3540</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>3544.5499999999997</v>
+      </c>
+      <c r="H91">
+        <v>3534.9688515130765</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>3551.5448441683684</v>
+      </c>
+      <c r="K91">
+        <v>3462.2404816229387</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>59.151929545924496</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>63.650000000000091</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.39277297721916676</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>3503.4679380080397</v>
+      </c>
+      <c r="W91">
+        <v>3519.4175990052813</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-15.949660997241608</v>
+      </c>
+      <c r="Y91">
+        <v>-31.73879419730368</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>3550</v>
+      </c>
+      <c r="D92">
+        <v>3563.95</v>
+      </c>
+      <c r="E92">
+        <v>3515</v>
+      </c>
+      <c r="F92">
+        <v>3543.1</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>3540.6833333333329</v>
+      </c>
+      <c r="H92">
+        <v>3537.8260924232045</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>3554.3015454642864</v>
+      </c>
+      <c r="K92">
+        <v>3473.9648190400635</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>59.847389736414279</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>28.099999999999909</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>48.949999999999818</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.57405515832482157</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>3509.5651783144949</v>
+      </c>
+      <c r="W92">
+        <v>3521.1718509308162</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-11.606672616321248</v>
+      </c>
+      <c r="Y92">
+        <v>-27.712369881107193</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>3541</v>
+      </c>
+      <c r="D93">
+        <v>3557.45</v>
+      </c>
+      <c r="E93">
+        <v>3488</v>
+      </c>
+      <c r="F93">
+        <v>3490.05</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>3511.8333333333335</v>
+      </c>
+      <c r="H93">
+        <v>3524.8297128782688</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>3555.0012020277782</v>
+      </c>
+      <c r="K93">
+        <v>3477.0837481422718</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>43.870101360773553</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.0500000000001819</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>69.449999999999818</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>2.9517638588915582E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>3506.5628431891882</v>
+      </c>
+      <c r="W93">
+        <v>3518.8665286396445</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-12.303685450456214</v>
+      </c>
+      <c r="Y93">
+        <v>-24.630632994976999</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>3505</v>
+      </c>
+      <c r="D94">
+        <v>3529.1</v>
+      </c>
+      <c r="E94">
+        <v>3432.15</v>
+      </c>
+      <c r="F94">
+        <v>3455</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>3472.0833333333335</v>
+      </c>
+      <c r="H94">
+        <v>3498.4565231058014</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>3549.2453793549384</v>
+      </c>
+      <c r="K94">
+        <v>3467.0984707773227</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>35.944937648742162</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>22.849999999999909</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>96.949999999999818</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.23568849922640486</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>3498.6300980831593</v>
+      </c>
+      <c r="W94">
+        <v>3514.1356746663373</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-15.505576583178026</v>
+      </c>
+      <c r="Y94">
+        <v>-22.805621712617203</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>3489</v>
+      </c>
+      <c r="D95">
+        <v>3490</v>
+      </c>
+      <c r="E95">
+        <v>3431.6</v>
+      </c>
+      <c r="F95">
+        <v>3433</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>3451.5333333333333</v>
+      </c>
+      <c r="H95">
+        <v>3474.9949282195676</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>3536.0797394982856</v>
+      </c>
+      <c r="K95">
+        <v>3459.2099217156956</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>31.482668044971877</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.4000000000000909</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>58.400000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>2.3972602739727546E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V95">
+        <v>3488.5331599165193</v>
+      </c>
+      <c r="W95">
+        <v>3508.125624691053</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-19.59246477453371</v>
+      </c>
+      <c r="Y95">
+        <v>-22.162990325000504</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>3454.95</v>
+      </c>
+      <c r="D96">
+        <v>3474.95</v>
+      </c>
+      <c r="E96">
+        <v>3433.75</v>
+      </c>
+      <c r="F96">
+        <v>3460.55</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>3456.4166666666665</v>
+      </c>
+      <c r="H96">
+        <v>3465.7057974431173</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>3522.4953529431109</v>
+      </c>
+      <c r="K96">
+        <v>3453.5521613344299</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>42.630879526895058</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>26.800000000000182</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>41.199999999999818</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.65048543689321114</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>3484.228058390901</v>
+      </c>
+      <c r="W96">
+        <v>3504.6015043435677</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-20.373445952666771</v>
+      </c>
+      <c r="Y96">
+        <v>-21.805081450533756</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>3470</v>
+      </c>
+      <c r="D97">
+        <v>3549</v>
+      </c>
+      <c r="E97">
+        <v>3439.7</v>
+      </c>
+      <c r="F97">
+        <v>3546.95</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>3511.8833333333332</v>
+      </c>
+      <c r="H97">
+        <v>3488.7945653882252</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>3528.3852745113086</v>
+      </c>
+      <c r="K97">
+        <v>3450.4739032601119</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>64.972543327317283</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>107.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>109.30000000000018</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.98124428179322798</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>3493.877587869224</v>
+      </c>
+      <c r="W97">
+        <v>3507.738429947748</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-13.860842078524001</v>
+      </c>
+      <c r="Y97">
+        <v>-20.216233576131806</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>3536</v>
+      </c>
+      <c r="D98">
+        <v>3580</v>
+      </c>
+      <c r="E98">
+        <v>3523</v>
+      </c>
+      <c r="F98">
+        <v>3565</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>3556</v>
+      </c>
+      <c r="H98">
+        <v>3522.3972826941126</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>3539.8552135087957</v>
+      </c>
+      <c r="K98">
+        <v>3466.5908136467538</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>68.205925130186529</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>57</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>3504.8194974278049</v>
+      </c>
+      <c r="W98">
+        <v>3511.9800277293962</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-7.1605303015912796</v>
+      </c>
+      <c r="Y98">
+        <v>-17.605092921223701</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>3566.35</v>
+      </c>
+      <c r="D99">
+        <v>3609.9</v>
+      </c>
+      <c r="E99">
+        <v>3561.05</v>
+      </c>
+      <c r="F99">
+        <v>3605</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>3591.9833333333336</v>
+      </c>
+      <c r="H99">
+        <v>3557.1903080137231</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>3555.420721617952</v>
+      </c>
+      <c r="K99">
+        <v>3487.5817439474754</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>74.680322525357283</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>43.949999999999818</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>48.849999999999909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.89969293756396929</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>3520.2318824389117</v>
+      </c>
+      <c r="W99">
+        <v>3518.8703960457374</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>1.3614863931743457</v>
+      </c>
+      <c r="Y99">
+        <v>-13.811777058344092</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>3566.6000000000004</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>3579.7000000000003</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>3585.5</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>3591.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>3604</v>
+      </c>
+      <c r="D100">
+        <v>3615</v>
+      </c>
+      <c r="E100">
+        <v>3524</v>
+      </c>
+      <c r="F100">
+        <v>3579</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>3572.6666666666665</v>
+      </c>
+      <c r="H100">
+        <v>3564.9284873401948</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>3568.6605612584071</v>
+      </c>
+      <c r="K100">
+        <v>3495.6746897369253</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>64.078325376780626</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>91</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.60439560439560436</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>3529.2731312944638</v>
+      </c>
+      <c r="W100">
+        <v>3523.3244407830903</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>5.9486905113735702</v>
+      </c>
+      <c r="Y100">
+        <v>-9.8596835444005588</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>3569</v>
+      </c>
+      <c r="D101">
+        <v>3573</v>
+      </c>
+      <c r="E101">
+        <v>3504.2</v>
+      </c>
+      <c r="F101">
+        <v>3540</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>3539.0666666666671</v>
+      </c>
+      <c r="H101">
+        <v>3551.9975770034307</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>3569.6248809787612</v>
+      </c>
+      <c r="K101">
+        <v>3497.5692031287194</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>50.607415542363029</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>35.800000000000182</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>68.800000000000182</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.52034883720930358</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>3530.9234187876232</v>
+      </c>
+      <c r="W101">
+        <v>3524.5596673917503</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>6.363751395872896</v>
+      </c>
+      <c r="Y101">
+        <v>-6.6149965563458668</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>3525</v>
+      </c>
+      <c r="D102">
+        <v>3535.25</v>
+      </c>
+      <c r="E102">
+        <v>3475.8</v>
+      </c>
+      <c r="F102">
+        <v>3500</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>3503.6833333333329</v>
+      </c>
+      <c r="H102">
+        <v>3527.8404551683816</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>3561.9860185390366</v>
+      </c>
+      <c r="K102">
+        <v>3492.7316024334486</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>39.863421771613908</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>24.199999999999818</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>59.449999999999818</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.40706476030277361</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>3526.1659697433734</v>
+      </c>
+      <c r="W102">
+        <v>3522.7404327701393</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>3.4255369732341023</v>
+      </c>
+      <c r="Y102">
+        <v>-4.606889850429873</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>3493</v>
+      </c>
+      <c r="D103">
+        <v>3545.8</v>
+      </c>
+      <c r="E103">
+        <v>3451.7</v>
+      </c>
+      <c r="F103">
+        <v>3499.95</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>3499.15</v>
+      </c>
+      <c r="H103">
+        <v>3513.4952275841906</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>3558.389125530362</v>
+      </c>
+      <c r="K103">
+        <v>3483.6134685593488</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>39.850202663659495</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>48.25</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>94.100000000000364</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.51275239107332427</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>3522.132743629008</v>
+      </c>
+      <c r="W103">
+        <v>3521.052252564944</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>1.0804910640640628</v>
+      </c>
+      <c r="Y103">
+        <v>-3.4694136675310858</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>3440.05</v>
+      </c>
+      <c r="D104">
+        <v>3525</v>
+      </c>
+      <c r="E104">
+        <v>3440.05</v>
+      </c>
+      <c r="F104">
+        <v>3524.95</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>3496.6666666666665</v>
+      </c>
+      <c r="H104">
+        <v>3505.0809471254288</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>3550.969319856948</v>
+      </c>
+      <c r="K104">
+        <v>3473.9326977683822</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>50.176444824731803</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>84.899999999999636</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>84.949999999999818</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.99941141848145754</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>3522.5661676860836</v>
+      </c>
+      <c r="W104">
+        <v>3521.3409745971703</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>1.2251930889133291</v>
+      </c>
+      <c r="Y104">
+        <v>-2.5304923162422028</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>3505</v>
+      </c>
+      <c r="D105">
+        <v>3563</v>
+      </c>
+      <c r="E105">
+        <v>3505</v>
+      </c>
+      <c r="F105">
+        <v>3545</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>3537.6666666666665</v>
+      </c>
+      <c r="H105">
+        <v>3521.3738068960474</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J105">
+        <v>3553.6428043331816</v>
+      </c>
+      <c r="K105">
+        <v>3480.8365427087419</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>57.492228509478224</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>58</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>3526.0175265036091</v>
+      </c>
+      <c r="W105">
+        <v>3523.0934949973798</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>2.9240315062293121</v>
+      </c>
+      <c r="Y105">
+        <v>-1.4395875517478998</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>3564</v>
+      </c>
+      <c r="D106">
+        <v>3679.05</v>
+      </c>
+      <c r="E106">
+        <v>3436.05</v>
+      </c>
+      <c r="F106">
+        <v>3575</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>3563.3666666666668</v>
+      </c>
+      <c r="H106">
+        <v>3542.3702367813571</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>3581.5110700369191</v>
+      </c>
+      <c r="K106">
+        <v>3470.8839776623549</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>66.650811802312063</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>138.94999999999982</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>243</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.57181069958847663</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>3533.5532916569</v>
+      </c>
+      <c r="W106">
+        <v>3526.9384212938703</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>6.614870363029695</v>
+      </c>
+      <c r="Y106">
+        <v>0.17130403120761928</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>3546.4</v>
+      </c>
+      <c r="D107">
+        <v>3649</v>
+      </c>
+      <c r="E107">
+        <v>3546.4</v>
+      </c>
+      <c r="F107">
+        <v>3631</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>3608.7999999999997</v>
+      </c>
+      <c r="H107">
+        <v>3575.5851183906784</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>3596.5086100287149</v>
+      </c>
+      <c r="K107">
+        <v>3487.6653159596094</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>77.807631295425892</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>84.599999999999909</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>102.59999999999991</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.82456140350877183</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V107">
+        <v>3548.5450929404537</v>
+      </c>
+      <c r="W107">
+        <v>3534.6466863832134</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>13.898406557240378</v>
+      </c>
+      <c r="Y107">
+        <v>2.9167245364141712</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
